--- a/StructureDefinition-profile-Patient.xlsx
+++ b/StructureDefinition-profile-Patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7619605-06:00</t>
+    <t>2026-02-09T22:05:43.2613022-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-profile-Patient.xlsx
+++ b/StructureDefinition-profile-Patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="389">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.2613022-06:00</t>
+    <t>2026-02-17T14:42:26.8734283-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -836,10 +836,40 @@
     <t>Patient.contact.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Patient.contact.extension:contact</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Patient.contact|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Patient.contact from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Patient.contact` has is mapped to FHIR R4 element `Patient.contact`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Patient.contact.modifierExtension</t>
@@ -1007,6 +1037,22 @@
   </si>
   <si>
     <t>Patient.communication.extension</t>
+  </si>
+  <si>
+    <t>Patient.communication.extension:communication</t>
+  </si>
+  <si>
+    <t>communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Patient.communication|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Patient.communication from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Patient.communication` has is mapped to FHIR R4 element `Patient.communication`, but has no comparisons.</t>
   </si>
   <si>
     <t>Patient.communication.modifierExtension</t>
@@ -1130,6 +1176,26 @@
   </si>
   <si>
     <t>Patient.link.extension</t>
+  </si>
+  <si>
+    <t>Patient.link.extension:link</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Patient.link|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Patient.link from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Link to a Patient or RelatedPerson resource that concerns the same actual individual.</t>
+  </si>
+  <si>
+    <t>Note that the target element context `Patient.link` is a modifier element, so this extension does not need to be defined as a modifier.
+Element `Patient.link` has is mapped to FHIR R4 element `Patient.link`, but has no comparisons.</t>
   </si>
   <si>
     <t>Patient.link.modifierExtension</t>
@@ -1473,7 +1539,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO46"/>
+  <dimension ref="A1:AO49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1482,9 +1548,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.8359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.07421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.8359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="13.453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1492,7 +1558,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="59.55859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.8671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4250,7 +4316,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4272,14 +4338,12 @@
         <v>135</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>136</v>
+        <v>262</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4316,19 +4380,17 @@
         <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4343,7 +4405,7 @@
         <v>140</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>81</v>
@@ -4360,14 +4422,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="D25" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4380,26 +4444,24 @@
         <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>135</v>
+        <v>269</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4447,7 +4509,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4456,13 +4518,13 @@
         <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>81</v>
@@ -4479,14 +4541,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>81</v>
+        <v>274</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4499,23 +4561,25 @@
         <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>272</v>
+        <v>144</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -4540,13 +4604,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -4564,7 +4628,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4576,19 +4640,19 @@
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>275</v>
+        <v>132</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>81</v>
@@ -4596,10 +4660,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4610,7 +4674,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>81</v>
@@ -4622,17 +4686,17 @@
         <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -4657,13 +4721,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -4681,13 +4745,13 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
@@ -4696,7 +4760,7 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>163</v>
@@ -4705,7 +4769,7 @@
         <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -4713,10 +4777,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4727,7 +4791,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>81</v>
@@ -4739,19 +4803,17 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>179</v>
+        <v>289</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -4800,13 +4862,13 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
@@ -4815,7 +4877,7 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>163</v>
@@ -4824,7 +4886,7 @@
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -4832,10 +4894,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4846,7 +4908,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
@@ -4858,17 +4920,19 @@
         <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O29" t="s" s="2">
-        <v>290</v>
+        <v>179</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -4917,13 +4981,13 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
@@ -4932,7 +4996,7 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>163</v>
@@ -4941,7 +5005,7 @@
         <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
@@ -4949,10 +5013,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4975,17 +5039,17 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>184</v>
+        <v>297</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5010,13 +5074,13 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -5034,7 +5098,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5049,7 +5113,7 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>163</v>
@@ -5058,7 +5122,7 @@
         <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>81</v>
@@ -5066,10 +5130,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5092,17 +5156,17 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>297</v>
+        <v>109</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>298</v>
+        <v>184</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5127,13 +5191,13 @@
         <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>81</v>
@@ -5151,7 +5215,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5160,13 +5224,13 @@
         <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>302</v>
+        <v>191</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>163</v>
@@ -5175,7 +5239,7 @@
         <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
@@ -5183,10 +5247,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5209,16 +5273,18 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5266,7 +5332,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5275,13 +5341,13 @@
         <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>163</v>
@@ -5290,7 +5356,7 @@
         <v>81</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>81</v>
@@ -5298,10 +5364,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5312,7 +5378,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -5324,20 +5390,16 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>249</v>
+        <v>314</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5385,13 +5447,13 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
@@ -5400,10 +5462,10 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>315</v>
+        <v>163</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
@@ -5417,10 +5479,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5431,7 +5493,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -5443,16 +5505,20 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>258</v>
+        <v>319</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5500,25 +5566,25 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>163</v>
+        <v>323</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>81</v>
+        <v>324</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
@@ -5532,21 +5598,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
@@ -5558,17 +5624,15 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>136</v>
+        <v>258</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5617,19 +5681,19 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>163</v>
@@ -5649,14 +5713,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5669,26 +5733,22 @@
         <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -5724,19 +5784,17 @@
         <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5751,7 +5809,7 @@
         <v>140</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>81</v>
@@ -5768,21 +5826,23 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -5794,20 +5854,18 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>222</v>
+        <v>329</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>321</v>
-      </c>
       <c r="N37" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
       </c>
@@ -5831,13 +5889,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -5855,31 +5913,31 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -5887,45 +5945,45 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>81</v>
+        <v>274</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>330</v>
+        <v>138</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>331</v>
+        <v>144</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -5974,31 +6032,31 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>332</v>
+        <v>132</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>333</v>
+        <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>334</v>
+        <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6006,21 +6064,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>336</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6032,18 +6090,20 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="O39" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6067,13 +6127,13 @@
         <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
@@ -6091,13 +6151,13 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
@@ -6106,16 +6166,16 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>163</v>
+        <v>339</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
@@ -6123,10 +6183,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6146,22 +6206,22 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>297</v>
+        <v>156</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6210,7 +6270,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6225,16 +6285,16 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
@@ -6249,7 +6309,7 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6262,26 +6322,24 @@
         <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>249</v>
+        <v>351</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6344,7 +6402,7 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>163</v>
@@ -6353,7 +6411,7 @@
         <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>81</v>
+        <v>356</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -6361,10 +6419,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6384,19 +6442,23 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>257</v>
+        <v>306</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>258</v>
+        <v>358</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
       </c>
@@ -6444,7 +6506,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>260</v>
+        <v>357</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6456,13 +6518,13 @@
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>163</v>
+        <v>311</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>81</v>
@@ -6476,14 +6538,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6496,24 +6558,26 @@
         <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>136</v>
+        <v>364</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>262</v>
+        <v>365</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
       </c>
@@ -6561,7 +6625,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>263</v>
+        <v>363</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6573,13 +6637,13 @@
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>81</v>
@@ -6593,46 +6657,42 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
       </c>
@@ -6680,22 +6740,22 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>81</v>
@@ -6712,10 +6772,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6723,10 +6783,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -6735,20 +6795,18 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>359</v>
+        <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>360</v>
+        <v>262</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -6785,43 +6843,41 @@
         <v>81</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>358</v>
+        <v>266</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -6829,21 +6885,23 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -6852,18 +6910,20 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>109</v>
+        <v>373</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -6888,57 +6948,408 @@
         <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X49" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Y46" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AG46" t="s" s="2">
+      <c r="Y49" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AG49" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH46" t="s" s="2">
+      <c r="AH49" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AI46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
+      <c r="AI49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AK46" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AK49" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AM46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO46" t="s" s="2">
+      <c r="AM49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Patient.xlsx
+++ b/StructureDefinition-profile-Patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8734283-06:00</t>
+    <t>2026-02-20T11:59:20.9131645-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Patient|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Patient</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -858,7 +858,7 @@
     <t>contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Patient.contact|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Patient.contact}
 </t>
   </si>
   <si>
@@ -1045,7 +1045,7 @@
     <t>communication</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Patient.communication|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Patient.communication}
 </t>
   </si>
   <si>
@@ -1184,7 +1184,7 @@
     <t>link</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Patient.link|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Patient.link}
 </t>
   </si>
   <si>
@@ -1558,7 +1558,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.8671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.45703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-Patient.xlsx
+++ b/StructureDefinition-profile-Patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="369">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9131645-06:00</t>
+    <t>2026-02-21T13:36:54.3148838-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Patient</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Patient|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -836,40 +836,10 @@
     <t>Patient.contact.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Patient.contact.extension:contact</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Patient.contact}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Patient.contact from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Patient.contact` has is mapped to FHIR R4 element `Patient.contact`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Patient.contact.modifierExtension</t>
@@ -1037,22 +1007,6 @@
   </si>
   <si>
     <t>Patient.communication.extension</t>
-  </si>
-  <si>
-    <t>Patient.communication.extension:communication</t>
-  </si>
-  <si>
-    <t>communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Patient.communication}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Patient.communication from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Patient.communication` has is mapped to FHIR R4 element `Patient.communication`, but has no comparisons.</t>
   </si>
   <si>
     <t>Patient.communication.modifierExtension</t>
@@ -1176,26 +1130,6 @@
   </si>
   <si>
     <t>Patient.link.extension</t>
-  </si>
-  <si>
-    <t>Patient.link.extension:link</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Patient.link}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Patient.link from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Link to a Patient or RelatedPerson resource that concerns the same actual individual.</t>
-  </si>
-  <si>
-    <t>Note that the target element context `Patient.link` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `Patient.link` has is mapped to FHIR R4 element `Patient.link`, but has no comparisons.</t>
   </si>
   <si>
     <t>Patient.link.modifierExtension</t>
@@ -1539,7 +1473,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO49"/>
+  <dimension ref="A1:AO46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1548,9 +1482,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.07421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.8359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.8359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1558,7 +1492,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.45703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="59.55859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4316,7 +4250,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4338,12 +4272,14 @@
         <v>135</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4380,17 +4316,19 @@
         <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AC24" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4405,7 +4343,7 @@
         <v>140</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>81</v>
@@ -4422,16 +4360,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4444,24 +4380,26 @@
         <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>269</v>
+        <v>135</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4509,7 +4447,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4518,13 +4456,13 @@
         <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>81</v>
@@ -4541,14 +4479,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4561,25 +4499,23 @@
         <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>135</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -4604,13 +4540,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>273</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>81</v>
+        <v>274</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -4628,7 +4564,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4640,19 +4576,19 @@
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>81</v>
@@ -4660,10 +4596,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4674,7 +4610,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>81</v>
@@ -4686,17 +4622,17 @@
         <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -4721,13 +4657,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -4745,13 +4681,13 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
@@ -4760,7 +4696,7 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>284</v>
+        <v>171</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>163</v>
@@ -4769,7 +4705,7 @@
         <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -4777,10 +4713,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4791,7 +4727,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>81</v>
@@ -4803,17 +4739,19 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O28" t="s" s="2">
-        <v>289</v>
+        <v>179</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -4862,13 +4800,13 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
@@ -4877,7 +4815,7 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>163</v>
@@ -4886,7 +4824,7 @@
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -4894,10 +4832,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4908,7 +4846,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
@@ -4920,19 +4858,17 @@
         <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>179</v>
+        <v>290</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -4981,13 +4917,13 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
@@ -4996,7 +4932,7 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>163</v>
@@ -5005,7 +4941,7 @@
         <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
@@ -5013,10 +4949,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5039,17 +4975,17 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>213</v>
+        <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>297</v>
+        <v>184</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5074,13 +5010,13 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -5098,7 +5034,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5113,7 +5049,7 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>163</v>
@@ -5122,7 +5058,7 @@
         <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>81</v>
@@ -5130,10 +5066,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5156,17 +5092,17 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>109</v>
+        <v>297</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>184</v>
+        <v>298</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5191,13 +5127,13 @@
         <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>81</v>
@@ -5215,7 +5151,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5224,13 +5160,13 @@
         <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>191</v>
+        <v>302</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>163</v>
@@ -5239,7 +5175,7 @@
         <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
@@ -5247,10 +5183,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5273,18 +5209,16 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5332,7 +5266,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5341,13 +5275,13 @@
         <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>310</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>163</v>
@@ -5356,7 +5290,7 @@
         <v>81</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>81</v>
@@ -5364,10 +5298,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5378,7 +5312,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -5390,16 +5324,20 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5447,13 +5385,13 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
@@ -5462,10 +5400,10 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>163</v>
+        <v>315</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
@@ -5479,10 +5417,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5493,7 +5431,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -5505,20 +5443,16 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>319</v>
+        <v>258</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5566,25 +5500,25 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>318</v>
+        <v>260</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>323</v>
+        <v>163</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
@@ -5598,21 +5532,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
@@ -5624,15 +5558,17 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>257</v>
+        <v>135</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>258</v>
+        <v>136</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5681,19 +5617,19 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>163</v>
@@ -5713,14 +5649,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5733,22 +5669,26 @@
         <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -5784,17 +5724,19 @@
         <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AC36" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5809,7 +5751,7 @@
         <v>140</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>81</v>
@@ -5826,23 +5768,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -5854,18 +5794,20 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>329</v>
+        <v>222</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
       </c>
@@ -5889,13 +5831,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -5913,31 +5855,31 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>81</v>
+        <v>324</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -5945,45 +5887,45 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>275</v>
+        <v>328</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>276</v>
+        <v>329</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>138</v>
+        <v>330</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>144</v>
+        <v>331</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6032,31 +5974,31 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>132</v>
+        <v>332</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>81</v>
+        <v>333</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6064,21 +6006,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>81</v>
+        <v>336</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6090,20 +6032,18 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>222</v>
+        <v>337</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6127,13 +6067,13 @@
         <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
@@ -6151,13 +6091,13 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
@@ -6166,16 +6106,16 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>339</v>
+        <v>163</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
@@ -6183,10 +6123,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6206,22 +6146,22 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>156</v>
+        <v>297</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6270,7 +6210,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6285,16 +6225,16 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>346</v>
+        <v>302</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
@@ -6309,7 +6249,7 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6322,24 +6262,26 @@
         <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="N41" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6402,7 +6344,7 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>163</v>
@@ -6411,7 +6353,7 @@
         <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>356</v>
+        <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -6419,10 +6361,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6442,23 +6384,19 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>358</v>
+        <v>258</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
       </c>
@@ -6506,7 +6444,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>357</v>
+        <v>260</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6518,13 +6456,13 @@
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>311</v>
+        <v>163</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>362</v>
+        <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>81</v>
@@ -6538,14 +6476,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6558,26 +6496,24 @@
         <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>364</v>
+        <v>136</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>365</v>
+        <v>262</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>81</v>
       </c>
@@ -6625,7 +6561,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>363</v>
+        <v>263</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6637,13 +6573,13 @@
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>368</v>
+        <v>163</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>81</v>
@@ -6657,42 +6593,46 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>257</v>
+        <v>135</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
       </c>
@@ -6740,22 +6680,22 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>81</v>
@@ -6772,10 +6712,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6783,10 +6723,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -6795,18 +6735,20 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>135</v>
+        <v>359</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>262</v>
+        <v>360</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -6843,41 +6785,43 @@
         <v>81</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AC45" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>266</v>
+        <v>358</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>81</v>
+        <v>363</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -6885,23 +6829,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -6910,20 +6852,18 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>373</v>
+        <v>109</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -6948,13 +6888,13 @@
         <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>81</v>
+        <v>367</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>81</v>
@@ -6972,25 +6912,25 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>266</v>
+        <v>364</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>81</v>
+        <v>368</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
@@ -6999,357 +6939,6 @@
         <v>81</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="P47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O48" s="2"/>
-      <c r="P48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO49" t="s" s="2">
         <v>81</v>
       </c>
     </row>
